--- a/Data/scenario1/input_data.xlsx
+++ b/Data/scenario1/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6FBF88-96F5-4024-BC38-2582DC338A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0DA725-D8E3-4E96-A85A-9174A5C827D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -245,12 +245,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,8 +283,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -549,655 +570,661 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="8.83203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>90</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>90</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>32</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>-0.1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0.9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>100</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>100</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>25</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>60</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>60</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>60</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>6000000</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>6000000</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>6000000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>6000000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>9300</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>9300</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>9300</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>7.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>7.5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>7.5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>4200</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>4200</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>4200</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>1100</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1100</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>1100</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>11</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>6</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>6</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1215,9 +1242,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1272,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1259,7 +1286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1273,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1287,7 +1314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1301,7 +1328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1315,7 +1342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1329,7 +1356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1343,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1357,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1371,7 +1398,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1412,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1426,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1427,7 +1454,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1455,9 +1482,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1518,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1508,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1542,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1559,7 +1586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1576,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1627,7 +1654,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1671,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1688,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1705,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1712,7 +1739,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1743,9 +1770,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1767,7 +1794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1789,7 +1816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1800,7 +1827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1811,7 +1838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1832,16 +1859,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734BEDA7-155B-41FB-9104-9149E63F8ABB}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1857,7 +1881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1865,7 +1889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>60</v>
       </c>
